--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_5_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_5_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1792411.420596294</v>
+        <v>1842304.19724729</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.7684111175</v>
+        <v>713587.7684111178</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11813519.27205211</v>
+        <v>11813519.27205212</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>216.6234524382191</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>237.5752781578165</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>241.0142888776591</v>
@@ -743,16 +743,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -791,7 +791,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>187.2203122129984</v>
+        <v>32.04955141818649</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -828,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -904,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F5" t="n">
-        <v>205.5810588664028</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -943,19 +943,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>75.08620022294134</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>44.5309617225791</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>62.13484214871499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="F7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>230.6992324161051</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>98.74855378848305</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>117.8074216906837</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1223,13 +1223,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>84.97365353379637</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>14.83685490770591</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>405.7415719969023</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>21.57958756131482</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>107.9467780863823</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20.80410422592455</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1457,19 +1457,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>106.0491490133058</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
         <v>225.9206407878966</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>158.2525819861381</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>106.0890042129125</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>405.7415719969024</v>
+        <v>310.1589963332023</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>63.65031255674068</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
-        <v>91.03093682338492</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1754,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>0.4712558904079952</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.9764047481749</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>177.9974450266851</v>
       </c>
     </row>
     <row r="17">
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>274.6223482342845</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>183.679628449894</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1922,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>108.7668093276099</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>95.69810132696315</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>160.0903419479084</v>
       </c>
       <c r="V19" t="n">
-        <v>9.157260519343172</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2083,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>7.149709277251265</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>209.5534570286104</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>61.36769561949416</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
-        <v>104.9844794896993</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>165.6221850809707</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>38.97640474817491</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2371,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>193.4533850280326</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>327.6199462256757</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2396,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>72.80030180323378</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
         <v>198.8939788055617</v>
@@ -2456,16 +2456,16 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>25.37527508885726</v>
       </c>
     </row>
     <row r="25">
@@ -2493,13 +2493,13 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>39.19479062707046</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>0.213123944113216</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>219.6900997683271</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>265.7301653101237</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2651,10 +2651,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8272126914158</v>
+        <v>144.6453993083821</v>
       </c>
       <c r="T27" t="n">
         <v>198.8939788055617</v>
@@ -2699,10 +2699,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.097200066762556</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>12.35168551462429</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>12.83153396320688</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>53.96864153531342</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>137.1840518004451</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2873,25 +2873,25 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>7.969121661034826</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>144.6453993083821</v>
       </c>
       <c r="T30" t="n">
         <v>198.8939788055617</v>
@@ -2936,7 +2936,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>180.0783550618347</v>
+        <v>158.2525819861381</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3031,13 +3031,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>134.8170645184443</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I32" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>385.9941988845332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,28 +3107,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>88.00880902957816</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>88.36753213863285</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U33" t="n">
         <v>225.9206407878966</v>
@@ -3173,10 +3173,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3192,10 +3192,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3243,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>39.19479062707046</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>30.44996741998445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>86.79287008259558</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>112.8556863456974</v>
+        <v>55.80272329272072</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3347,10 +3347,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3359,10 +3359,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>2.327053774223227</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>29.64081002319186</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3404,10 +3404,10 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>39.19479062707046</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>157.7727335375556</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3508,19 +3508,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>405.7415719969024</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>145.9471946673</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3562,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>62.51580823726268</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3581,13 +3581,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -3596,10 +3596,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9206407878966</v>
@@ -3644,13 +3644,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>110.4557435975313</v>
       </c>
       <c r="Y39" t="n">
-        <v>45.23794906564731</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>145.6674229028286</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>157.7727335375556</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>149.3934976432923</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,10 +3751,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G41" t="n">
-        <v>405.7415719969023</v>
+        <v>226.0641449307602</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3830,7 +3830,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>137.0282495084215</v>
@@ -3839,7 +3839,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,16 +3866,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>80.58358449827551</v>
+        <v>20.3532392701483</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3884,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>81.63050380724412</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>12.83153396320686</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>158.2525819861381</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G44" t="n">
         <v>405.7415719969023</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>179.372059866102</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>10.65380626982436</v>
       </c>
     </row>
     <row r="45">
@@ -4055,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4103,22 +4103,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
-        <v>16.68992827320521</v>
+        <v>111.3803086133544</v>
       </c>
       <c r="T45" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>106.9147497326711</v>
       </c>
       <c r="V46" t="n">
-        <v>180.0783550618347</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>499.3853800778592</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C2" t="n">
-        <v>499.3853800778592</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D2" t="n">
-        <v>499.3853800778592</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E2" t="n">
-        <v>499.3853800778592</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F2" t="n">
         <v>259.4103516356203</v>
@@ -4357,25 +4357,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>742.8341567219593</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U2" t="n">
-        <v>499.3853800778592</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V2" t="n">
-        <v>499.3853800778592</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W2" t="n">
-        <v>499.3853800778592</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X2" t="n">
-        <v>499.3853800778592</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y2" t="n">
-        <v>499.3853800778592</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>272.1352367728036</v>
+        <v>428.8733789897854</v>
       </c>
       <c r="C3" t="n">
-        <v>272.1352367728036</v>
+        <v>428.8733789897854</v>
       </c>
       <c r="D3" t="n">
-        <v>272.1352367728036</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="E3" t="n">
-        <v>272.1352367728036</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="F3" t="n">
-        <v>272.1352367728036</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G3" t="n">
         <v>133.4044113554191</v>
@@ -4415,19 +4415,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4439,22 +4439,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>500.3588550364146</v>
+        <v>657.0969972533964</v>
       </c>
       <c r="U3" t="n">
-        <v>272.1352367728036</v>
+        <v>428.8733789897854</v>
       </c>
       <c r="V3" t="n">
-        <v>272.1352367728036</v>
+        <v>428.8733789897854</v>
       </c>
       <c r="W3" t="n">
-        <v>272.1352367728036</v>
+        <v>428.8733789897854</v>
       </c>
       <c r="X3" t="n">
-        <v>272.1352367728036</v>
+        <v>428.8733789897854</v>
       </c>
       <c r="Y3" t="n">
-        <v>272.1352367728036</v>
+        <v>428.8733789897854</v>
       </c>
     </row>
     <row r="4">
@@ -4476,13 +4476,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
         <v>19.28114311021272</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>710.516763498309</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="C5" t="n">
-        <v>710.516763498309</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="D5" t="n">
-        <v>710.516763498309</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="E5" t="n">
-        <v>467.067986854209</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="F5" t="n">
-        <v>259.4103516356203</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="V5" t="n">
-        <v>710.516763498309</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="W5" t="n">
-        <v>710.516763498309</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="X5" t="n">
-        <v>710.516763498309</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="Y5" t="n">
-        <v>710.516763498309</v>
+        <v>290.2572196227447</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>352.8382100532927</v>
+        <v>901.2946886937524</v>
       </c>
       <c r="C6" t="n">
-        <v>178.3851807721657</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="D6" t="n">
-        <v>178.3851807721657</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E6" t="n">
-        <v>178.3851807721657</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F6" t="n">
-        <v>178.3851807721657</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G6" t="n">
-        <v>178.3851807721657</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
-        <v>65.01604517974501</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4649,19 +4649,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>901.2946886937524</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>901.2946886937524</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>901.2946886937524</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>901.2946886937524</v>
       </c>
       <c r="V6" t="n">
-        <v>728.9050472788936</v>
+        <v>901.2946886937524</v>
       </c>
       <c r="W6" t="n">
-        <v>728.9050472788936</v>
+        <v>901.2946886937524</v>
       </c>
       <c r="X6" t="n">
-        <v>521.0535470733607</v>
+        <v>901.2946886937524</v>
       </c>
       <c r="Y6" t="n">
-        <v>521.0535470733607</v>
+        <v>901.2946886937524</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
         <v>41.77557929797318</v>
@@ -4746,31 +4746,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="8">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>499.3853800778592</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C8" t="n">
         <v>266.3558523848238</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>742.8341567219593</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>742.8341567219593</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V8" t="n">
-        <v>742.8341567219593</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W8" t="n">
-        <v>499.3853800778592</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="X8" t="n">
-        <v>499.3853800778592</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="Y8" t="n">
-        <v>499.3853800778592</v>
+        <v>266.3558523848238</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>878.2251822441752</v>
+        <v>845.059759863481</v>
       </c>
       <c r="C9" t="n">
-        <v>703.7721529630483</v>
+        <v>670.606730582354</v>
       </c>
       <c r="D9" t="n">
-        <v>554.837743301797</v>
+        <v>521.6723209211027</v>
       </c>
       <c r="E9" t="n">
-        <v>395.6002882963414</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F9" t="n">
-        <v>249.0657303232264</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
         <v>110.334904905842</v>
@@ -4889,10 +4889,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
         <v>473.4149733950735</v>
@@ -4925,10 +4925,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>878.2251822441752</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>878.2251822441752</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -4995,16 +4995,16 @@
         <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
         <v>136.0777814360265</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>442.2992974737949</v>
+        <v>849.8851132652865</v>
       </c>
       <c r="C11" t="n">
-        <v>442.2992974737949</v>
+        <v>849.8851132652865</v>
       </c>
       <c r="D11" t="n">
-        <v>442.2992974737949</v>
+        <v>849.8851132652865</v>
       </c>
       <c r="E11" t="n">
-        <v>442.2992974737949</v>
+        <v>464.0968606670422</v>
       </c>
       <c r="F11" t="n">
-        <v>32.45932575975218</v>
+        <v>54.25688895299947</v>
       </c>
       <c r="G11" t="n">
-        <v>32.45932575975218</v>
+        <v>54.25688895299947</v>
       </c>
       <c r="H11" t="n">
-        <v>32.45932575975218</v>
+        <v>54.25688895299947</v>
       </c>
       <c r="I11" t="n">
         <v>32.45932575975218</v>
@@ -5047,10 +5047,10 @@
         <v>247.3580469011318</v>
       </c>
       <c r="L11" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M11" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N11" t="n">
         <v>1148.836227140252</v>
@@ -5065,28 +5065,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S11" t="n">
-        <v>1311.402045381201</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T11" t="n">
-        <v>1311.402045381201</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="U11" t="n">
-        <v>1311.402045381201</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="V11" t="n">
-        <v>1202.364895798996</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="W11" t="n">
-        <v>1202.364895798996</v>
+        <v>849.8851132652865</v>
       </c>
       <c r="X11" t="n">
-        <v>828.8991375379167</v>
+        <v>849.8851132652865</v>
       </c>
       <c r="Y11" t="n">
-        <v>828.8991375379167</v>
+        <v>849.8851132652865</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>427.6998149662337</v>
+        <v>329.2086128638484</v>
       </c>
       <c r="C12" t="n">
-        <v>427.6998149662337</v>
+        <v>329.2086128638484</v>
       </c>
       <c r="D12" t="n">
-        <v>427.6998149662337</v>
+        <v>329.2086128638484</v>
       </c>
       <c r="E12" t="n">
-        <v>427.6998149662337</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="F12" t="n">
-        <v>281.1652569931186</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="G12" t="n">
-        <v>142.7528837522889</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H12" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I12" t="n">
         <v>32.45932575975218</v>
@@ -5123,13 +5123,13 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K12" t="n">
-        <v>236.9655055809357</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L12" t="n">
-        <v>534.6972605625989</v>
+        <v>147.3709770270845</v>
       </c>
       <c r="M12" t="n">
-        <v>934.1153971668618</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N12" t="n">
         <v>948.4732699082806</v>
@@ -5144,28 +5144,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R12" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S12" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T12" t="n">
-        <v>1374.066492846507</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U12" t="n">
-        <v>1145.863825383985</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V12" t="n">
-        <v>910.7117171522423</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="W12" t="n">
-        <v>656.4743604240407</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="X12" t="n">
-        <v>656.4743604240407</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="Y12" t="n">
-        <v>448.7140616590868</v>
+        <v>329.2086128638484</v>
       </c>
     </row>
     <row r="13">
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.45932575975218</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="C13" t="n">
         <v>32.45932575975218</v>
@@ -5226,25 +5226,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S13" t="n">
-        <v>139.6199360758254</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T13" t="n">
-        <v>139.6199360758254</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="U13" t="n">
-        <v>139.6199360758254</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="V13" t="n">
-        <v>32.45932575975218</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="W13" t="n">
-        <v>32.45932575975218</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="X13" t="n">
-        <v>32.45932575975218</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.45932575975218</v>
+        <v>201.3955086876591</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>442.299297473795</v>
+        <v>682.5596409606844</v>
       </c>
       <c r="C14" t="n">
-        <v>442.299297473795</v>
+        <v>682.5596409606844</v>
       </c>
       <c r="D14" t="n">
-        <v>442.299297473795</v>
+        <v>682.5596409606844</v>
       </c>
       <c r="E14" t="n">
-        <v>442.299297473795</v>
+        <v>682.5596409606844</v>
       </c>
       <c r="F14" t="n">
-        <v>442.299297473795</v>
+        <v>682.5596409606844</v>
       </c>
       <c r="G14" t="n">
-        <v>32.45932575975219</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H14" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I14" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J14" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K14" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M14" t="n">
         <v>838.8947028941456</v>
@@ -5293,37 +5293,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P14" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q14" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R14" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S14" t="n">
-        <v>1558.673042980801</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T14" t="n">
-        <v>1558.673042980801</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U14" t="n">
-        <v>1558.673042980801</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="V14" t="n">
-        <v>1558.673042980801</v>
+        <v>1069.159481024806</v>
       </c>
       <c r="W14" t="n">
-        <v>1205.904387710687</v>
+        <v>1069.159481024806</v>
       </c>
       <c r="X14" t="n">
-        <v>832.4386294496068</v>
+        <v>1069.159481024806</v>
       </c>
       <c r="Y14" t="n">
-        <v>442.299297473795</v>
+        <v>1069.159481024806</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>666.272646544556</v>
+        <v>327.9282933941184</v>
       </c>
       <c r="C15" t="n">
-        <v>666.272646544556</v>
+        <v>327.9282933941184</v>
       </c>
       <c r="D15" t="n">
-        <v>666.272646544556</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="E15" t="n">
-        <v>507.0351915391004</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F15" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G15" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H15" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I15" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J15" t="n">
         <v>61.20822116384403</v>
@@ -5366,43 +5366,43 @@
         <v>534.6972605625989</v>
       </c>
       <c r="M15" t="n">
-        <v>934.1153971668618</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N15" t="n">
-        <v>1335.799553443795</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O15" t="n">
-        <v>1335.799553443795</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P15" t="n">
-        <v>1578.043302647803</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R15" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S15" t="n">
-        <v>1455.464052945775</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T15" t="n">
-        <v>1455.464052945775</v>
+        <v>1422.063279093102</v>
       </c>
       <c r="U15" t="n">
-        <v>1363.513611710033</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="V15" t="n">
-        <v>1128.36150347829</v>
+        <v>958.708503398838</v>
       </c>
       <c r="W15" t="n">
-        <v>874.1241467500888</v>
+        <v>704.4711466706365</v>
       </c>
       <c r="X15" t="n">
-        <v>666.272646544556</v>
+        <v>496.6196464651036</v>
       </c>
       <c r="Y15" t="n">
-        <v>666.272646544556</v>
+        <v>496.1436304141865</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.45932575975219</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="C16" t="n">
-        <v>32.45932575975219</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="D16" t="n">
-        <v>32.45932575975219</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="E16" t="n">
-        <v>32.45932575975219</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="F16" t="n">
-        <v>32.45932575975219</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="G16" t="n">
-        <v>32.45932575975219</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="H16" t="n">
-        <v>32.45932575975219</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="I16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K16" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L16" t="n">
         <v>107.0302722280248</v>
@@ -5475,13 +5475,13 @@
         <v>361.2466016029501</v>
       </c>
       <c r="W16" t="n">
-        <v>71.82943156598947</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X16" t="n">
-        <v>71.82943156598947</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.82943156598947</v>
+        <v>181.4512025860964</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>828.0875500720392</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="C17" t="n">
-        <v>828.0875500720392</v>
+        <v>719.695608821557</v>
       </c>
       <c r="D17" t="n">
-        <v>828.0875500720392</v>
+        <v>719.695608821557</v>
       </c>
       <c r="E17" t="n">
-        <v>442.299297473795</v>
+        <v>719.695608821557</v>
       </c>
       <c r="F17" t="n">
-        <v>442.299297473795</v>
+        <v>719.695608821557</v>
       </c>
       <c r="G17" t="n">
-        <v>32.45932575975219</v>
+        <v>309.8556371075143</v>
       </c>
       <c r="H17" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I17" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J17" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K17" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L17" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M17" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N17" t="n">
         <v>1148.836227140252</v>
@@ -5539,28 +5539,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R17" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S17" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T17" t="n">
-        <v>1400.222368368377</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U17" t="n">
-        <v>1214.687390136161</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="V17" t="n">
-        <v>1214.687390136161</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="W17" t="n">
-        <v>1214.687390136161</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="X17" t="n">
-        <v>1214.687390136161</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="Y17" t="n">
-        <v>1214.687390136161</v>
+        <v>1088.658125761969</v>
       </c>
     </row>
     <row r="18">
@@ -5570,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>288.85934770015</v>
+        <v>840.725675825683</v>
       </c>
       <c r="C18" t="n">
-        <v>288.85934770015</v>
+        <v>666.272646544556</v>
       </c>
       <c r="D18" t="n">
-        <v>288.85934770015</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E18" t="n">
-        <v>178.9938837328672</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F18" t="n">
-        <v>32.45932575975219</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G18" t="n">
-        <v>32.45932575975219</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H18" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I18" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J18" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K18" t="n">
-        <v>208.2166101768439</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L18" t="n">
-        <v>505.9483651585071</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M18" t="n">
-        <v>905.3665017627701</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N18" t="n">
-        <v>1057.709031609044</v>
+        <v>1335.799553443795</v>
       </c>
       <c r="O18" t="n">
-        <v>1380.722538783602</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P18" t="n">
         <v>1622.966287987609</v>
@@ -5618,28 +5618,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R18" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S18" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T18" t="n">
-        <v>1422.063279093103</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="U18" t="n">
-        <v>1193.860611630581</v>
+        <v>1313.366060425819</v>
       </c>
       <c r="V18" t="n">
-        <v>958.7085033988383</v>
+        <v>1313.366060425819</v>
       </c>
       <c r="W18" t="n">
-        <v>704.4711466706367</v>
+        <v>1313.366060425819</v>
       </c>
       <c r="X18" t="n">
-        <v>496.6196464651039</v>
+        <v>1216.701311610705</v>
       </c>
       <c r="Y18" t="n">
-        <v>288.85934770015</v>
+        <v>1008.941012845751</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>351.9968435026035</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C19" t="n">
-        <v>351.9968435026035</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D19" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E19" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F19" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K19" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L19" t="n">
         <v>107.0302722280248</v>
@@ -5697,28 +5697,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R19" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="S19" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="T19" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="U19" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V19" t="n">
-        <v>351.9968435026035</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W19" t="n">
-        <v>351.9968435026035</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X19" t="n">
-        <v>351.9968435026035</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y19" t="n">
-        <v>351.9968435026035</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>859.3611977507178</v>
+        <v>602.3951829812606</v>
       </c>
       <c r="C20" t="n">
-        <v>852.1392691878377</v>
+        <v>602.3951829812606</v>
       </c>
       <c r="D20" t="n">
-        <v>852.1392691878377</v>
+        <v>244.1294843745101</v>
       </c>
       <c r="E20" t="n">
-        <v>852.1392691878377</v>
+        <v>244.1294843745101</v>
       </c>
       <c r="F20" t="n">
-        <v>442.299297473795</v>
+        <v>244.1294843745101</v>
       </c>
       <c r="G20" t="n">
-        <v>32.45932575975219</v>
+        <v>244.1294843745101</v>
       </c>
       <c r="H20" t="n">
         <v>32.45932575975219</v>
@@ -5752,16 +5752,16 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K20" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
@@ -5776,28 +5776,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R20" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S20" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T20" t="n">
-        <v>1622.966287987609</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="U20" t="n">
-        <v>1622.966287987609</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="V20" t="n">
-        <v>1622.966287987609</v>
+        <v>955.1638382513748</v>
       </c>
       <c r="W20" t="n">
-        <v>1622.966287987609</v>
+        <v>602.3951829812606</v>
       </c>
       <c r="X20" t="n">
-        <v>1249.50052972653</v>
+        <v>602.3951829812606</v>
       </c>
       <c r="Y20" t="n">
-        <v>859.3611977507178</v>
+        <v>602.3951829812606</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>597.4593063921106</v>
+        <v>797.8592509657628</v>
       </c>
       <c r="C21" t="n">
-        <v>597.4593063921106</v>
+        <v>797.8592509657628</v>
       </c>
       <c r="D21" t="n">
-        <v>448.5248967308594</v>
+        <v>648.9248413045116</v>
       </c>
       <c r="E21" t="n">
-        <v>289.2874417254039</v>
+        <v>489.6873862990561</v>
       </c>
       <c r="F21" t="n">
-        <v>142.7528837522889</v>
+        <v>343.1528283259411</v>
       </c>
       <c r="G21" t="n">
-        <v>142.7528837522889</v>
+        <v>204.7404550851113</v>
       </c>
       <c r="H21" t="n">
-        <v>32.45932575975219</v>
+        <v>94.44689709257457</v>
       </c>
       <c r="I21" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J21" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K21" t="n">
-        <v>32.45932575975219</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L21" t="n">
-        <v>330.1910807414154</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M21" t="n">
-        <v>729.6092173456784</v>
+        <v>546.7891136313477</v>
       </c>
       <c r="N21" t="n">
-        <v>1131.293373622612</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O21" t="n">
         <v>1271.486777082839</v>
       </c>
       <c r="P21" t="n">
-        <v>1513.730526286846</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q21" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R21" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S21" t="n">
-        <v>1541.568727888341</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T21" t="n">
-        <v>1435.523799110867</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="U21" t="n">
-        <v>1435.523799110867</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="V21" t="n">
-        <v>1435.523799110867</v>
+        <v>1220.311944714033</v>
       </c>
       <c r="W21" t="n">
-        <v>1181.286442382665</v>
+        <v>966.0745879858309</v>
       </c>
       <c r="X21" t="n">
-        <v>973.4349421771326</v>
+        <v>966.0745879858309</v>
       </c>
       <c r="Y21" t="n">
-        <v>765.6746434121787</v>
+        <v>966.0745879858309</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>193.9514651575251</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C22" t="n">
-        <v>193.9514651575251</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D22" t="n">
-        <v>193.9514651575251</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E22" t="n">
-        <v>193.9514651575251</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F22" t="n">
-        <v>193.9514651575251</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G22" t="n">
-        <v>193.9514651575251</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H22" t="n">
         <v>32.45932575975219</v>
@@ -5937,25 +5937,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S22" t="n">
-        <v>193.9514651575251</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T22" t="n">
-        <v>193.9514651575251</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U22" t="n">
-        <v>193.9514651575251</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V22" t="n">
-        <v>193.9514651575251</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W22" t="n">
-        <v>193.9514651575251</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X22" t="n">
-        <v>193.9514651575251</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y22" t="n">
-        <v>193.9514651575251</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>738.230242413013</v>
+        <v>1096.495941019763</v>
       </c>
       <c r="C23" t="n">
-        <v>369.2677254726013</v>
+        <v>727.5334240793518</v>
       </c>
       <c r="D23" t="n">
         <v>369.2677254726013</v>
@@ -5995,16 +5995,16 @@
         <v>247.3580469011319</v>
       </c>
       <c r="L23" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M23" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N23" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O23" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P23" t="n">
         <v>1569.862809315274</v>
@@ -6019,22 +6019,22 @@
         <v>1622.96628798761</v>
       </c>
       <c r="T23" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U23" t="n">
-        <v>1400.222368368377</v>
+        <v>1427.558828363334</v>
       </c>
       <c r="V23" t="n">
-        <v>1069.159481024807</v>
+        <v>1096.495941019763</v>
       </c>
       <c r="W23" t="n">
-        <v>738.230242413013</v>
+        <v>1096.495941019763</v>
       </c>
       <c r="X23" t="n">
-        <v>738.230242413013</v>
+        <v>1096.495941019763</v>
       </c>
       <c r="Y23" t="n">
-        <v>738.230242413013</v>
+        <v>1096.495941019763</v>
       </c>
     </row>
     <row r="24">
@@ -6044,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>704.7131542729894</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="C24" t="n">
-        <v>530.2601249918624</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="D24" t="n">
-        <v>381.3257153306112</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="E24" t="n">
         <v>222.0882603251556</v>
@@ -6071,49 +6071,49 @@
         <v>61.20822116384404</v>
       </c>
       <c r="K24" t="n">
-        <v>61.20822116384404</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L24" t="n">
-        <v>358.9399761455072</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M24" t="n">
-        <v>758.3581127497703</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N24" t="n">
-        <v>1160.042269026704</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O24" t="n">
-        <v>1483.055776201262</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P24" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q24" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R24" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S24" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T24" t="n">
-        <v>1422.063279093103</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U24" t="n">
-        <v>1193.860611630581</v>
+        <v>944.9608164894786</v>
       </c>
       <c r="V24" t="n">
-        <v>1193.860611630581</v>
+        <v>709.8087082577358</v>
       </c>
       <c r="W24" t="n">
-        <v>1193.860611630581</v>
+        <v>455.5713515295342</v>
       </c>
       <c r="X24" t="n">
-        <v>986.0091114250481</v>
+        <v>247.7198513240014</v>
       </c>
       <c r="Y24" t="n">
-        <v>778.2488126600942</v>
+        <v>222.0882603251556</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>72.05002336285366</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="C25" t="n">
-        <v>72.05002336285366</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="D25" t="n">
-        <v>72.05002336285366</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="E25" t="n">
-        <v>72.05002336285366</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="F25" t="n">
-        <v>72.05002336285366</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="G25" t="n">
-        <v>72.05002336285366</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="H25" t="n">
-        <v>72.05002336285366</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I25" t="n">
-        <v>72.05002336285366</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J25" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="K25" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L25" t="n">
         <v>107.0302722280248</v>
@@ -6171,28 +6171,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R25" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="S25" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="T25" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="U25" t="n">
-        <v>72.05002336285366</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="V25" t="n">
-        <v>72.05002336285366</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="W25" t="n">
-        <v>72.05002336285366</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="X25" t="n">
-        <v>72.05002336285366</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="Y25" t="n">
-        <v>72.05002336285366</v>
+        <v>193.9514651575251</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>640.1567700431754</v>
+        <v>1354.551979593545</v>
       </c>
       <c r="C26" t="n">
-        <v>640.1567700431754</v>
+        <v>1354.551979593545</v>
       </c>
       <c r="D26" t="n">
-        <v>418.2475783579964</v>
+        <v>1354.551979593545</v>
       </c>
       <c r="E26" t="n">
-        <v>32.45932575975218</v>
+        <v>968.7637269953004</v>
       </c>
       <c r="F26" t="n">
-        <v>32.45932575975218</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="G26" t="n">
-        <v>32.45932575975218</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="H26" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I26" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J26" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K26" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L26" t="n">
         <v>519.4894913528326</v>
@@ -6256,22 +6256,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T26" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U26" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V26" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W26" t="n">
-        <v>1400.222368368377</v>
+        <v>1354.551979593545</v>
       </c>
       <c r="X26" t="n">
-        <v>1026.756610107297</v>
+        <v>1354.551979593545</v>
       </c>
       <c r="Y26" t="n">
-        <v>1026.756610107297</v>
+        <v>1354.551979593545</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>286.2477316137459</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="C27" t="n">
-        <v>111.7947023326189</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="D27" t="n">
-        <v>111.7947023326189</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="E27" t="n">
-        <v>111.7947023326189</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="F27" t="n">
-        <v>111.7947023326189</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="G27" t="n">
-        <v>111.7947023326189</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H27" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I27" t="n">
         <v>32.45932575975218</v>
@@ -6308,49 +6308,49 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K27" t="n">
-        <v>61.20822116384403</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L27" t="n">
-        <v>256.6067387278472</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M27" t="n">
-        <v>656.0248753321102</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N27" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O27" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P27" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q27" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R27" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S27" t="n">
-        <v>1374.066492846507</v>
+        <v>1476.859824039748</v>
       </c>
       <c r="T27" t="n">
-        <v>1173.163483952</v>
+        <v>1275.956815145242</v>
       </c>
       <c r="U27" t="n">
-        <v>944.9608164894781</v>
+        <v>1047.75414768272</v>
       </c>
       <c r="V27" t="n">
-        <v>709.8087082577354</v>
+        <v>812.6020394509774</v>
       </c>
       <c r="W27" t="n">
-        <v>455.5713515295337</v>
+        <v>558.3646827227757</v>
       </c>
       <c r="X27" t="n">
-        <v>455.5713515295337</v>
+        <v>350.5131825172429</v>
       </c>
       <c r="Y27" t="n">
-        <v>454.463068633814</v>
+        <v>142.7528837522889</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>348.2854561855694</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C28" t="n">
-        <v>179.3492732576625</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="D28" t="n">
-        <v>179.3492732576625</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="E28" t="n">
-        <v>179.3492732576625</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="F28" t="n">
-        <v>32.45932575975218</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="G28" t="n">
         <v>32.45932575975218</v>
@@ -6411,25 +6411,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S28" t="n">
-        <v>348.2854561855694</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T28" t="n">
-        <v>348.2854561855694</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U28" t="n">
-        <v>348.2854561855694</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V28" t="n">
-        <v>348.2854561855694</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W28" t="n">
-        <v>348.2854561855694</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X28" t="n">
-        <v>348.2854561855694</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y28" t="n">
-        <v>348.2854561855694</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>800.5649960805454</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="C29" t="n">
-        <v>800.5649960805454</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="D29" t="n">
-        <v>442.2992974737949</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E29" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F29" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G29" t="n">
         <v>32.45932575975218</v>
@@ -6487,28 +6487,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R29" t="n">
-        <v>1622.966287987609</v>
+        <v>1568.45250865901</v>
       </c>
       <c r="S29" t="n">
-        <v>1622.966287987609</v>
+        <v>1568.45250865901</v>
       </c>
       <c r="T29" t="n">
-        <v>1622.966287987609</v>
+        <v>1568.45250865901</v>
       </c>
       <c r="U29" t="n">
-        <v>1622.966287987609</v>
+        <v>1568.45250865901</v>
       </c>
       <c r="V29" t="n">
-        <v>1291.903400644038</v>
+        <v>1568.45250865901</v>
       </c>
       <c r="W29" t="n">
-        <v>939.1347453739243</v>
+        <v>1568.45250865901</v>
       </c>
       <c r="X29" t="n">
-        <v>800.5649960805454</v>
+        <v>1194.98675039793</v>
       </c>
       <c r="Y29" t="n">
-        <v>800.5649960805454</v>
+        <v>804.8474184221182</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>415.3132878064143</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="C30" t="n">
-        <v>407.2636699669852</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="D30" t="n">
-        <v>258.3292603057339</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="E30" t="n">
-        <v>258.3292603057339</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="F30" t="n">
-        <v>111.7947023326189</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="G30" t="n">
-        <v>111.7947023326189</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H30" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I30" t="n">
         <v>32.45932575975218</v>
@@ -6551,43 +6551,43 @@
         <v>534.6972605625989</v>
       </c>
       <c r="M30" t="n">
-        <v>656.0248753321102</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N30" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O30" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P30" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q30" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R30" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S30" t="n">
-        <v>1541.568727888341</v>
+        <v>1476.859824039748</v>
       </c>
       <c r="T30" t="n">
-        <v>1340.665718993834</v>
+        <v>1275.956815145242</v>
       </c>
       <c r="U30" t="n">
-        <v>1112.463051531312</v>
+        <v>1047.75414768272</v>
       </c>
       <c r="V30" t="n">
-        <v>877.3109432995698</v>
+        <v>812.6020394509774</v>
       </c>
       <c r="W30" t="n">
-        <v>623.0735865713682</v>
+        <v>558.3646827227757</v>
       </c>
       <c r="X30" t="n">
-        <v>623.0735865713682</v>
+        <v>350.5131825172429</v>
       </c>
       <c r="Y30" t="n">
-        <v>415.3132878064143</v>
+        <v>142.7528837522889</v>
       </c>
     </row>
     <row r="31">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.3492732576625</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="C31" t="n">
-        <v>179.3492732576625</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D31" t="n">
-        <v>179.3492732576625</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E31" t="n">
-        <v>179.3492732576625</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F31" t="n">
         <v>32.45932575975218</v>
@@ -6654,19 +6654,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U31" t="n">
-        <v>179.3492732576625</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="V31" t="n">
-        <v>179.3492732576625</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="W31" t="n">
-        <v>179.3492732576625</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="X31" t="n">
-        <v>179.3492732576625</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="Y31" t="n">
-        <v>179.3492732576625</v>
+        <v>201.3955086876591</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>558.9237552812579</v>
+        <v>1249.50052972653</v>
       </c>
       <c r="C32" t="n">
-        <v>558.9237552812579</v>
+        <v>1113.321676677596</v>
       </c>
       <c r="D32" t="n">
-        <v>558.9237552812579</v>
+        <v>755.0559780708455</v>
       </c>
       <c r="E32" t="n">
-        <v>558.9237552812579</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="F32" t="n">
-        <v>558.9237552812579</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="G32" t="n">
-        <v>558.9237552812579</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H32" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I32" t="n">
         <v>32.45932575975219</v>
@@ -6709,7 +6709,7 @@
         <v>519.4894913528328</v>
       </c>
       <c r="M32" t="n">
-        <v>838.8947028941459</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N32" t="n">
         <v>1148.836227140252</v>
@@ -6727,25 +6727,25 @@
         <v>1622.96628798761</v>
       </c>
       <c r="S32" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T32" t="n">
-        <v>1202.653768535401</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U32" t="n">
-        <v>948.8168854676551</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V32" t="n">
-        <v>948.8168854676551</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="W32" t="n">
-        <v>948.8168854676551</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="X32" t="n">
-        <v>948.8168854676551</v>
+        <v>1249.50052972653</v>
       </c>
       <c r="Y32" t="n">
-        <v>558.9237552812579</v>
+        <v>1249.50052972653</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>566.5011249724407</v>
+        <v>121.357112658316</v>
       </c>
       <c r="C33" t="n">
-        <v>566.5011249724407</v>
+        <v>121.357112658316</v>
       </c>
       <c r="D33" t="n">
-        <v>417.5667153111894</v>
+        <v>121.357112658316</v>
       </c>
       <c r="E33" t="n">
-        <v>258.3292603057339</v>
+        <v>121.357112658316</v>
       </c>
       <c r="F33" t="n">
-        <v>111.7947023326189</v>
+        <v>121.357112658316</v>
       </c>
       <c r="G33" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H33" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I33" t="n">
         <v>32.45932575975219</v>
@@ -6785,46 +6785,46 @@
         <v>236.9655055809358</v>
       </c>
       <c r="L33" t="n">
-        <v>236.9655055809358</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M33" t="n">
-        <v>636.3836421851988</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N33" t="n">
-        <v>1038.067798462132</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O33" t="n">
-        <v>1361.08130563669</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P33" t="n">
-        <v>1603.325054840698</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q33" t="n">
         <v>1622.96628798761</v>
       </c>
       <c r="R33" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S33" t="n">
-        <v>1452.308594414975</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T33" t="n">
-        <v>1452.308594414975</v>
+        <v>1254.561044051269</v>
       </c>
       <c r="U33" t="n">
-        <v>1224.105926952453</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V33" t="n">
-        <v>988.9538187207104</v>
+        <v>791.2062683570043</v>
       </c>
       <c r="W33" t="n">
-        <v>734.7164619925088</v>
+        <v>536.9689116288027</v>
       </c>
       <c r="X33" t="n">
-        <v>734.7164619925088</v>
+        <v>329.1174114232699</v>
       </c>
       <c r="Y33" t="n">
-        <v>734.7164619925088</v>
+        <v>121.357112658316</v>
       </c>
     </row>
     <row r="34">
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>330.489058754481</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C34" t="n">
-        <v>330.489058754481</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D34" t="n">
-        <v>180.3724193421453</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E34" t="n">
         <v>32.45932575975219</v>
@@ -6891,19 +6891,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U34" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="V34" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W34" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X34" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y34" t="n">
-        <v>330.489058754481</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>478.3945901064982</v>
+        <v>759.6875413069145</v>
       </c>
       <c r="C35" t="n">
-        <v>478.3945901064982</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="D35" t="n">
-        <v>120.1288914997477</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E35" t="n">
-        <v>120.1288914997477</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F35" t="n">
-        <v>120.1288914997477</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G35" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H35" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I35" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J35" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K35" t="n">
         <v>247.3580469011319</v>
@@ -6946,7 +6946,7 @@
         <v>519.4894913528326</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
@@ -6961,28 +6961,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R35" t="n">
-        <v>1508.970645214178</v>
+        <v>1566.599900823245</v>
       </c>
       <c r="S35" t="n">
-        <v>1508.970645214178</v>
+        <v>1369.031300990268</v>
       </c>
       <c r="T35" t="n">
-        <v>1508.970645214178</v>
+        <v>1146.287381371036</v>
       </c>
       <c r="U35" t="n">
-        <v>1255.133762146432</v>
+        <v>1146.287381371036</v>
       </c>
       <c r="V35" t="n">
-        <v>1255.133762146432</v>
+        <v>1146.287381371036</v>
       </c>
       <c r="W35" t="n">
-        <v>1255.133762146432</v>
+        <v>1146.287381371036</v>
       </c>
       <c r="X35" t="n">
-        <v>1255.133762146432</v>
+        <v>1146.287381371036</v>
       </c>
       <c r="Y35" t="n">
-        <v>864.99443017062</v>
+        <v>1146.287381371036</v>
       </c>
     </row>
     <row r="36">
@@ -6992,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>181.3444431007695</v>
+        <v>670.7339080607135</v>
       </c>
       <c r="C36" t="n">
-        <v>181.3444431007695</v>
+        <v>496.2808787795865</v>
       </c>
       <c r="D36" t="n">
-        <v>181.3444431007695</v>
+        <v>347.3464691183352</v>
       </c>
       <c r="E36" t="n">
-        <v>181.3444431007695</v>
+        <v>347.3464691183352</v>
       </c>
       <c r="F36" t="n">
-        <v>34.80988512765444</v>
+        <v>200.8119111452202</v>
       </c>
       <c r="G36" t="n">
-        <v>32.45932575975219</v>
+        <v>62.39953790439043</v>
       </c>
       <c r="H36" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I36" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J36" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K36" t="n">
-        <v>208.2166101768439</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L36" t="n">
-        <v>208.2166101768439</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M36" t="n">
-        <v>607.634746781107</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N36" t="n">
-        <v>1009.31890305804</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O36" t="n">
         <v>1271.486777082839</v>
@@ -7052,16 +7052,16 @@
         <v>1254.561044051268</v>
       </c>
       <c r="V36" t="n">
-        <v>1019.408935819526</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="W36" t="n">
-        <v>765.1715790913242</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="X36" t="n">
-        <v>557.3200788857914</v>
+        <v>1046.709543845735</v>
       </c>
       <c r="Y36" t="n">
-        <v>349.5597801208375</v>
+        <v>838.9492450807816</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>72.05002336285366</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="C37" t="n">
-        <v>72.05002336285366</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="D37" t="n">
-        <v>72.05002336285366</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="E37" t="n">
-        <v>32.45932575975219</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="F37" t="n">
-        <v>32.45932575975219</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="G37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K37" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L37" t="n">
         <v>107.0302722280248</v>
@@ -7128,19 +7128,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U37" t="n">
-        <v>72.05002336285366</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V37" t="n">
-        <v>72.05002336285366</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W37" t="n">
-        <v>72.05002336285366</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X37" t="n">
-        <v>72.05002336285366</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="Y37" t="n">
-        <v>72.05002336285366</v>
+        <v>201.8802040902677</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1186.35324867879</v>
+        <v>565.6689871128449</v>
       </c>
       <c r="C38" t="n">
-        <v>1186.35324867879</v>
+        <v>565.6689871128449</v>
       </c>
       <c r="D38" t="n">
-        <v>828.0875500720392</v>
+        <v>565.6689871128449</v>
       </c>
       <c r="E38" t="n">
-        <v>442.299297473795</v>
+        <v>179.8807345146006</v>
       </c>
       <c r="F38" t="n">
-        <v>32.45932575975219</v>
+        <v>179.8807345146006</v>
       </c>
       <c r="G38" t="n">
-        <v>32.45932575975219</v>
+        <v>179.8807345146006</v>
       </c>
       <c r="H38" t="n">
         <v>32.45932575975219</v>
@@ -7180,10 +7180,10 @@
         <v>247.358046901132</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941459</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
@@ -7195,31 +7195,31 @@
         <v>1569.862809315274</v>
       </c>
       <c r="Q38" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R38" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S38" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T38" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U38" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V38" t="n">
-        <v>1559.819006939869</v>
+        <v>1291.903400644039</v>
       </c>
       <c r="W38" t="n">
-        <v>1559.819006939869</v>
+        <v>939.1347453739247</v>
       </c>
       <c r="X38" t="n">
-        <v>1186.35324867879</v>
+        <v>565.6689871128449</v>
       </c>
       <c r="Y38" t="n">
-        <v>1186.35324867879</v>
+        <v>565.6689871128449</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>450.9247484189957</v>
+        <v>504.5621832871644</v>
       </c>
       <c r="C39" t="n">
-        <v>450.9247484189957</v>
+        <v>330.1091540060374</v>
       </c>
       <c r="D39" t="n">
-        <v>301.9903387577444</v>
+        <v>330.1091540060374</v>
       </c>
       <c r="E39" t="n">
-        <v>142.7528837522889</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="F39" t="n">
-        <v>142.7528837522889</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G39" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H39" t="n">
         <v>32.45932575975219</v>
@@ -7262,43 +7262,43 @@
         <v>534.697260562599</v>
       </c>
       <c r="M39" t="n">
-        <v>934.1153971668621</v>
+        <v>869.8026208059056</v>
       </c>
       <c r="N39" t="n">
-        <v>948.4732699082811</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="O39" t="n">
         <v>1271.486777082839</v>
       </c>
       <c r="P39" t="n">
-        <v>1513.730526286847</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q39" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R39" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S39" t="n">
-        <v>1622.96628798761</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T39" t="n">
-        <v>1422.063279093103</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="U39" t="n">
-        <v>1193.860611630581</v>
+        <v>1227.261385483253</v>
       </c>
       <c r="V39" t="n">
-        <v>958.7085033988385</v>
+        <v>992.1092772515108</v>
       </c>
       <c r="W39" t="n">
-        <v>704.4711466706369</v>
+        <v>992.1092772515108</v>
       </c>
       <c r="X39" t="n">
-        <v>496.6196464651041</v>
+        <v>880.5378190721863</v>
       </c>
       <c r="Y39" t="n">
-        <v>450.9247484189957</v>
+        <v>672.7775203072324</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.5981367727104</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="C40" t="n">
-        <v>32.45932575975219</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="D40" t="n">
-        <v>32.45932575975219</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="E40" t="n">
-        <v>32.45932575975219</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="F40" t="n">
-        <v>32.45932575975219</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="G40" t="n">
         <v>32.45932575975219</v>
@@ -7365,19 +7365,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U40" t="n">
-        <v>361.2466016029501</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="V40" t="n">
-        <v>361.2466016029501</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="W40" t="n">
-        <v>361.2466016029501</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="X40" t="n">
-        <v>361.2466016029501</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="Y40" t="n">
-        <v>361.2466016029501</v>
+        <v>201.8802040902677</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>828.0875500720392</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="C41" t="n">
-        <v>828.0875500720392</v>
+        <v>1056.435171214221</v>
       </c>
       <c r="D41" t="n">
-        <v>828.0875500720392</v>
+        <v>1056.435171214221</v>
       </c>
       <c r="E41" t="n">
-        <v>442.299297473795</v>
+        <v>670.646918615977</v>
       </c>
       <c r="F41" t="n">
-        <v>442.299297473795</v>
+        <v>260.8069469019342</v>
       </c>
       <c r="G41" t="n">
         <v>32.45932575975219</v>
@@ -7438,25 +7438,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S41" t="n">
-        <v>1622.966287987609</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T41" t="n">
-        <v>1622.966287987609</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="U41" t="n">
-        <v>1369.129404919863</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="V41" t="n">
-        <v>1369.129404919863</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="W41" t="n">
-        <v>1369.129404919863</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="X41" t="n">
-        <v>1369.129404919863</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="Y41" t="n">
-        <v>978.9900729440517</v>
+        <v>1425.397688154633</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>815.2070562058072</v>
+        <v>763.7901509409525</v>
       </c>
       <c r="C42" t="n">
-        <v>815.2070562058072</v>
+        <v>589.3371216598255</v>
       </c>
       <c r="D42" t="n">
-        <v>666.272646544556</v>
+        <v>440.4027119985742</v>
       </c>
       <c r="E42" t="n">
-        <v>507.0351915391004</v>
+        <v>281.1652569931187</v>
       </c>
       <c r="F42" t="n">
-        <v>360.5006335659854</v>
+        <v>281.1652569931187</v>
       </c>
       <c r="G42" t="n">
-        <v>222.0882603251556</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H42" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I42" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J42" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K42" t="n">
-        <v>236.9655055809358</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L42" t="n">
-        <v>236.9655055809358</v>
+        <v>505.9483651585071</v>
       </c>
       <c r="M42" t="n">
-        <v>636.3836421851988</v>
+        <v>905.3665017627701</v>
       </c>
       <c r="N42" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O42" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P42" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q42" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R42" t="n">
-        <v>1541.568727888341</v>
+        <v>1602.407460442005</v>
       </c>
       <c r="S42" t="n">
-        <v>1541.568727888341</v>
+        <v>1434.905225400171</v>
       </c>
       <c r="T42" t="n">
-        <v>1340.665718993834</v>
+        <v>1434.905225400171</v>
       </c>
       <c r="U42" t="n">
-        <v>1340.665718993834</v>
+        <v>1206.702557937649</v>
       </c>
       <c r="V42" t="n">
-        <v>1105.513610762092</v>
+        <v>971.5504497059064</v>
       </c>
       <c r="W42" t="n">
-        <v>1105.513610762092</v>
+        <v>971.5504497059064</v>
       </c>
       <c r="X42" t="n">
-        <v>897.6621105565589</v>
+        <v>971.5504497059064</v>
       </c>
       <c r="Y42" t="n">
-        <v>815.2070562058072</v>
+        <v>763.7901509409525</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>361.2466016029501</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="C43" t="n">
-        <v>192.3104186750432</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D43" t="n">
-        <v>179.3492732576626</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E43" t="n">
-        <v>179.3492732576626</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F43" t="n">
         <v>32.45932575975219</v>
@@ -7602,19 +7602,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U43" t="n">
-        <v>361.2466016029501</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="V43" t="n">
-        <v>361.2466016029501</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="W43" t="n">
-        <v>361.2466016029501</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="X43" t="n">
-        <v>361.2466016029501</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="Y43" t="n">
-        <v>361.2466016029501</v>
+        <v>201.3955086876591</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>442.299297473795</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="C44" t="n">
-        <v>442.299297473795</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="D44" t="n">
-        <v>442.299297473795</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="E44" t="n">
-        <v>442.299297473795</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F44" t="n">
         <v>442.299297473795</v>
@@ -7648,16 +7648,16 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J44" t="n">
-        <v>70.13987180521474</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K44" t="n">
-        <v>247.3580469011316</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528323</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M44" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N44" t="n">
         <v>1148.836227140252</v>
@@ -7675,25 +7675,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S44" t="n">
-        <v>1441.782389132961</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T44" t="n">
-        <v>1219.038469513729</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U44" t="n">
-        <v>1219.038469513729</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V44" t="n">
-        <v>1219.038469513729</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W44" t="n">
-        <v>1219.038469513729</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X44" t="n">
-        <v>1219.038469513729</v>
+        <v>1249.50052972653</v>
       </c>
       <c r="Y44" t="n">
-        <v>828.8991375379168</v>
+        <v>1238.739109251959</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>761.3902992528161</v>
+        <v>355.8467647021305</v>
       </c>
       <c r="C45" t="n">
-        <v>586.9372699716891</v>
+        <v>181.3937354210034</v>
       </c>
       <c r="D45" t="n">
-        <v>586.9372699716891</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E45" t="n">
-        <v>427.6998149662337</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F45" t="n">
-        <v>281.1652569931187</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G45" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H45" t="n">
         <v>32.45932575975219</v>
@@ -7739,40 +7739,40 @@
         <v>934.1153971668621</v>
       </c>
       <c r="N45" t="n">
-        <v>948.4732699082806</v>
+        <v>1299.952780813051</v>
       </c>
       <c r="O45" t="n">
-        <v>1271.486777082839</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P45" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q45" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R45" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S45" t="n">
-        <v>1606.107774580331</v>
+        <v>1429.063365652629</v>
       </c>
       <c r="T45" t="n">
-        <v>1405.204765685825</v>
+        <v>1429.063365652629</v>
       </c>
       <c r="U45" t="n">
-        <v>1177.002098223303</v>
+        <v>1429.063365652629</v>
       </c>
       <c r="V45" t="n">
-        <v>1177.002098223303</v>
+        <v>1193.911257420887</v>
       </c>
       <c r="W45" t="n">
-        <v>1177.002098223303</v>
+        <v>939.6739006926853</v>
       </c>
       <c r="X45" t="n">
-        <v>969.1505980177701</v>
+        <v>731.8224004871524</v>
       </c>
       <c r="Y45" t="n">
-        <v>761.3902992528161</v>
+        <v>524.0621017221986</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.3492732576626</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C46" t="n">
-        <v>179.3492732576626</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D46" t="n">
-        <v>179.3492732576626</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E46" t="n">
-        <v>179.3492732576626</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F46" t="n">
         <v>32.45932575975219</v>
@@ -7839,19 +7839,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U46" t="n">
-        <v>361.2466016029501</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="V46" t="n">
-        <v>179.3492732576626</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="W46" t="n">
-        <v>179.3492732576626</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="X46" t="n">
-        <v>179.3492732576626</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="Y46" t="n">
-        <v>179.3492732576626</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
   </sheetData>
@@ -8063,22 +8063,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8537,13 +8537,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8771,16 +8771,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>157.1342855878806</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>63.84875129258624</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9014,19 +9014,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>74.46639351210651</v>
       </c>
       <c r="N15" t="n">
-        <v>455.0874215304798</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O15" t="n">
-        <v>67.58604940343855</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>145.1148873712471</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9254,16 +9254,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>203.2271928126416</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>357.6534580335538</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831324</v>
       </c>
       <c r="Q18" t="n">
-        <v>99.73813450275541</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,22 +9479,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>74.46639351210686</v>
       </c>
       <c r="N21" t="n">
-        <v>455.0874215304797</v>
+        <v>455.0874215304798</v>
       </c>
       <c r="O21" t="n">
-        <v>209.1955478481123</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9728,16 +9728,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>455.0874215304797</v>
+        <v>63.84875129258644</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>215.0958621574522</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>267.4734388209743</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>455.0874215304796</v>
+        <v>63.84875129258623</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10199,10 +10199,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>184.8055467452003</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>455.0874215304796</v>
+        <v>63.84875129258623</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10433,13 +10433,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>70.10119885733472</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>455.0874215304798</v>
+        <v>63.84875129258646</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>119.5777639440803</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,22 +10664,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>70.10119885733472</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>455.0874215304797</v>
+        <v>63.84875129258623</v>
       </c>
       <c r="O36" t="n">
-        <v>332.402083771922</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10910,13 +10910,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>400.7426633853975</v>
       </c>
       <c r="N39" t="n">
-        <v>63.84875129258646</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>67.58604940343854</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11138,19 +11138,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>70.10119885733471</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>364.5878977387105</v>
+        <v>203.2271928126414</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720734</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11308,7 +11308,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119838</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11387,16 +11387,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>63.84875129258599</v>
+        <v>418.8785602873038</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831321</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23266,7 +23266,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>1.134473744809156</v>
@@ -23278,7 +23278,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
-        <v>187.7594695105699</v>
+        <v>166.1798819492551</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
-        <v>219.8054803837526</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>145.7290794239428</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23345,19 +23345,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>51.59593144209514</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23466,16 +23466,16 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T13" t="n">
-        <v>226.8162656893113</v>
+        <v>68.56368370317321</v>
       </c>
       <c r="U13" t="n">
         <v>286.3046124576955</v>
       </c>
       <c r="V13" t="n">
-        <v>146.0486391109155</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23509,10 +23509,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>8.971932133631526</v>
+        <v>104.5545077973316</v>
       </c>
       <c r="H14" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>187.7594695105699</v>
@@ -23545,25 +23545,25 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
-        <v>131.9426012779059</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,13 +23624,13 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>134.8897039645117</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>205.2114398868964</v>
       </c>
     </row>
     <row r="16">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>140.8555754337624</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23673,7 +23673,7 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I16" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>74.67247646141476</v>
@@ -23715,13 +23715,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>40.58720832540965</v>
       </c>
     </row>
     <row r="17">
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>8.971932133631583</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H17" t="n">
-        <v>333.4403157157206</v>
+        <v>58.81796748143614</v>
       </c>
       <c r="I17" t="n">
         <v>187.7594695105699</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>67.61888578717438</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>48.87827112779105</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>110.0748838765143</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H19" t="n">
         <v>159.8772180037952</v>
@@ -23937,7 +23937,7 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R19" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>219.4103988718534</v>
@@ -23946,10 +23946,10 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3046124576955</v>
+        <v>126.2142705097871</v>
       </c>
       <c r="V19" t="n">
-        <v>242.9803828044848</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23971,22 +23971,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>358.1231824937563</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>1.1344737448091</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H20" t="n">
-        <v>333.4403157157206</v>
+        <v>123.8868586871102</v>
       </c>
       <c r="I20" t="n">
         <v>187.7594695105699</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24062,13 +24062,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>78.54202280713804</v>
+        <v>17.17432718764388</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>93.90949931586233</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24144,7 +24144,7 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I22" t="n">
         <v>147.5019580580808</v>
@@ -24177,7 +24177,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S22" t="n">
-        <v>53.78821379088265</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T22" t="n">
         <v>226.8162656893113</v>
@@ -24186,10 +24186,10 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>213.1612385756531</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24211,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24259,16 +24259,16 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2985142370684</v>
+        <v>57.8451292090358</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>21.62102249173734</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>93.73288184663356</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24344,16 +24344,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>180.3074206884471</v>
       </c>
     </row>
     <row r="25">
@@ -24381,13 +24381,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H25" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>147.5019580580808</v>
       </c>
       <c r="J25" t="n">
-        <v>35.4776858343443</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,10 +24408,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.0297007843443</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R25" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>219.4103988718534</v>
@@ -24420,10 +24420,10 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>251.9245193797148</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>134.9929418523558</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G26" t="n">
         <v>414.7135041305339</v>
       </c>
       <c r="H26" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
         <v>251.2985142370684</v>
@@ -24505,10 +24505,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>83.5108034072893</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24521,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24539,10 +24539,10 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H27" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>21.1818133830337</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24587,10 +24587,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>204.5854957105418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>154.8951355840036</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>159.8772180037952</v>
@@ -24651,7 +24651,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S28" t="n">
-        <v>206.5788649086465</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T28" t="n">
         <v>226.8162656893113</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H29" t="n">
         <v>333.4403157157206</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>112.8556863456974</v>
+        <v>58.88704481038403</v>
       </c>
       <c r="S29" t="n">
         <v>195.5929138346465</v>
@@ -24739,16 +24739,16 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>232.5470488780239</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24761,25 +24761,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>164.7393773272809</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H30" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
-        <v>165.8272126914158</v>
+        <v>21.1818133830337</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24824,7 +24824,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.7266695472104</v>
@@ -24894,7 +24894,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U31" t="n">
-        <v>106.2262573958608</v>
+        <v>128.0520304715574</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24919,13 +24919,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>230.4558272525632</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24982,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.2437397715203815</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,28 +24995,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0282495084215</v>
+        <v>49.01944047884329</v>
       </c>
       <c r="H33" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,13 +25043,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
-        <v>77.4596805527829</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25061,10 +25061,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25080,10 +25080,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25131,10 +25131,10 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>212.9428526967575</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>188.1346859321103</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>327.9206340479383</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H35" t="n">
         <v>333.4403157157206</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>57.05296305297673</v>
       </c>
       <c r="S35" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25235,10 +25235,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25247,10 +25247,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>134.7011957341982</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>109.1906224126114</v>
+        <v>79.5498123894195</v>
       </c>
       <c r="I36" t="n">
         <v>78.54202280713804</v>
@@ -25292,10 +25292,10 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25320,13 +25320,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>107.2391720194987</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>159.8772180037952</v>
@@ -25368,7 +25368,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>67.9369218514816</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25396,19 +25396,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.134473744809043</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>414.7135041305339</v>
       </c>
       <c r="H38" t="n">
-        <v>333.4403157157206</v>
+        <v>187.4931210484206</v>
       </c>
       <c r="I38" t="n">
         <v>187.7594695105699</v>
@@ -25450,10 +25450,10 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
-        <v>265.2364502328722</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25469,13 +25469,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -25484,10 +25484,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I39" t="n">
         <v>78.54202280713804</v>
@@ -25520,10 +25520,10 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25532,13 +25532,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>95.31724160594622</v>
       </c>
       <c r="Y39" t="n">
-        <v>160.444746711657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>21.5793981957992</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>159.8772180037952</v>
@@ -25605,7 +25605,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3046124576955</v>
+        <v>128.5318789201399</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>233.3403440201882</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25639,10 +25639,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G41" t="n">
-        <v>8.971932133631583</v>
+        <v>188.6493591997737</v>
       </c>
       <c r="H41" t="n">
         <v>333.4403157157206</v>
@@ -25678,13 +25678,13 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25709,7 +25709,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25718,7 +25718,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -25727,7 +25727,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>60.23034522812721</v>
       </c>
       <c r="S42" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25772,10 +25772,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>124.0521919700602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>135.7839390550055</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.7266695472104</v>
@@ -25842,7 +25842,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3046124576955</v>
+        <v>128.0520304715574</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25876,7 +25876,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G44" t="n">
         <v>8.971932133631583</v>
@@ -25915,10 +25915,10 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
-        <v>16.2208539685445</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U44" t="n">
         <v>251.2985142370684</v>
@@ -25930,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>375.5841323862292</v>
       </c>
     </row>
     <row r="45">
@@ -25943,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
         <v>78.54202280713804</v>
@@ -25991,22 +25991,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>149.1372844182105</v>
+        <v>54.44690407806131</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.7266695472104</v>
@@ -26079,10 +26079,10 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3046124576955</v>
+        <v>179.3898627250244</v>
       </c>
       <c r="V46" t="n">
-        <v>72.05928826199332</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>469978.2354500733</v>
+        <v>469978.2354500734</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>469978.2354500736</v>
+        <v>469978.2354500734</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>469978.2354500737</v>
+        <v>469978.2354500731</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>469978.2354500736</v>
+        <v>469978.2354500734</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>469978.2354500733</v>
+        <v>469978.2354500734</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>469978.2354500736</v>
+        <v>469978.2354500733</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>469978.2354500733</v>
+        <v>469978.2354500734</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>469978.2354500737</v>
+        <v>469978.2354500734</v>
       </c>
     </row>
     <row r="15">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982125</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="E2" t="n">
+        <v>320443.3455969099</v>
+      </c>
+      <c r="F2" t="n">
         <v>320443.3455969098</v>
       </c>
-      <c r="F2" t="n">
-        <v>320443.34559691</v>
-      </c>
       <c r="G2" t="n">
-        <v>320443.3455969099</v>
+        <v>320443.3455969098</v>
       </c>
       <c r="H2" t="n">
         <v>320443.3455969099</v>
@@ -26346,16 +26346,16 @@
         <v>320443.3455969098</v>
       </c>
       <c r="M2" t="n">
-        <v>320443.34559691</v>
+        <v>320443.3455969099</v>
       </c>
       <c r="N2" t="n">
-        <v>320443.34559691</v>
+        <v>320443.3455969099</v>
       </c>
       <c r="O2" t="n">
+        <v>320443.3455969099</v>
+      </c>
+      <c r="P2" t="n">
         <v>320443.3455969098</v>
-      </c>
-      <c r="P2" t="n">
-        <v>320443.3455969099</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910621</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.6978624479</v>
+        <v>41050.69786244788</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26456,7 +26456,7 @@
         <v>43026.40002390872</v>
       </c>
       <c r="O4" t="n">
-        <v>43026.40002390871</v>
+        <v>43026.40002390872</v>
       </c>
       <c r="P4" t="n">
         <v>43026.40002390871</v>
@@ -26481,16 +26481,16 @@
         <v>27864.35291375756</v>
       </c>
       <c r="F5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="G5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="H5" t="n">
         <v>27864.35291375757</v>
       </c>
       <c r="I5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375758</v>
       </c>
       <c r="J5" t="n">
         <v>27864.35291375756</v>
@@ -26502,7 +26502,7 @@
         <v>27864.35291375757</v>
       </c>
       <c r="M5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="N5" t="n">
         <v>27864.35291375757</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165767.6741125476</v>
+        <v>165767.6741125472</v>
       </c>
       <c r="C6" t="n">
         <v>246537.1056440953</v>
       </c>
       <c r="D6" t="n">
-        <v>246537.1056440955</v>
+        <v>246537.1056440949</v>
       </c>
       <c r="E6" t="n">
-        <v>72767.82314062005</v>
+        <v>81627.96259465929</v>
       </c>
       <c r="F6" t="n">
-        <v>239707.9932658669</v>
+        <v>248568.1327199058</v>
       </c>
       <c r="G6" t="n">
-        <v>239707.9932658669</v>
+        <v>248568.1327199058</v>
       </c>
       <c r="H6" t="n">
-        <v>239707.9932658669</v>
+        <v>248568.132719906</v>
       </c>
       <c r="I6" t="n">
-        <v>239707.9932658669</v>
+        <v>248568.1327199059</v>
       </c>
       <c r="J6" t="n">
-        <v>176648.0506667606</v>
+        <v>185508.1901207998</v>
       </c>
       <c r="K6" t="n">
-        <v>239707.9932658669</v>
+        <v>248568.1327199059</v>
       </c>
       <c r="L6" t="n">
-        <v>239707.9932658667</v>
+        <v>248568.1327199058</v>
       </c>
       <c r="M6" t="n">
-        <v>198657.2954034191</v>
+        <v>207517.4348574581</v>
       </c>
       <c r="N6" t="n">
-        <v>239707.9932658669</v>
+        <v>248568.132719906</v>
       </c>
       <c r="O6" t="n">
-        <v>239707.9932658667</v>
+        <v>248568.132719906</v>
       </c>
       <c r="P6" t="n">
-        <v>239707.9932658669</v>
+        <v>248568.1327199059</v>
       </c>
     </row>
   </sheetData>
@@ -26758,7 +26758,7 @@
         <v>146.571804419537</v>
       </c>
       <c r="I3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="J3" t="n">
         <v>146.571804419537</v>
@@ -26801,7 +26801,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="F4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G4" t="n">
         <v>405.7415719969023</v>
@@ -26810,7 +26810,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="I4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="J4" t="n">
         <v>405.7415719969023</v>
@@ -26825,7 +26825,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="N4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O4" t="n">
         <v>405.7415719969023</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.7272831192433</v>
+        <v>164.7272831192432</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>164.7272831192433</v>
+        <v>164.7272831192432</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>164.7272831192433</v>
+        <v>164.7272831192432</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>148.6494393327885</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>169.3007675838949</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27429,10 +27429,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>10.33136403017744</v>
@@ -27463,16 +27463,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27511,7 +27511,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>12.94441648182317</v>
+        <v>168.1151772766351</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27557,7 +27557,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -27624,10 +27624,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>201.2949868753087</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>176.2594526848952</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>44.86567112883598</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>38.02299200392815</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27754,13 +27754,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27782,10 +27782,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>124.3999708738849</v>
       </c>
       <c r="F7" t="n">
-        <v>37.22501299855256</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>134.5736593549025</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>250.49241492893</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>48.72576195918364</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27943,13 +27943,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27997,7 +27997,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>120.7993316696811</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28067,7 +28067,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>271.482174448785</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>203.7477984443889</v>
       </c>
     </row>
     <row r="11">
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H17" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I17" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J17" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K17" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L17" t="n">
-        <v>92.98544734044661</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M17" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N17" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O17" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P17" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q17" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R17" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S17" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T17" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,43 +32305,43 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H18" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I18" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J18" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K18" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L18" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M18" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N18" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O18" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P18" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R18" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S18" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T18" t="n">
         <v>1.270749889259948</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H19" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I19" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J19" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K19" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L19" t="n">
         <v>39.29566048323129</v>
@@ -32408,7 +32408,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O19" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P19" t="n">
         <v>31.96707026225442</v>
@@ -32417,16 +32417,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R19" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S19" t="n">
-        <v>4.606199165118891</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T19" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H20" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I20" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J20" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K20" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L20" t="n">
-        <v>92.98544734044661</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M20" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N20" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O20" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P20" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R20" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S20" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T20" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,43 +32542,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H21" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I21" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J21" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K21" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L21" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M21" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N21" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O21" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P21" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R21" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S21" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T21" t="n">
         <v>1.270749889259948</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H22" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I22" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J22" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K22" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L22" t="n">
         <v>39.29566048323129</v>
@@ -32645,7 +32645,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O22" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P22" t="n">
         <v>31.96707026225442</v>
@@ -32654,16 +32654,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R22" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S22" t="n">
-        <v>4.606199165118891</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T22" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,22 +32700,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011536</v>
       </c>
       <c r="H23" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046566</v>
       </c>
       <c r="I23" t="n">
-        <v>22.71642005983599</v>
+        <v>22.716420059836</v>
       </c>
       <c r="J23" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629221</v>
       </c>
       <c r="K23" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645906</v>
       </c>
       <c r="L23" t="n">
-        <v>92.98544734044661</v>
+        <v>92.98544734044663</v>
       </c>
       <c r="M23" t="n">
         <v>103.4642265438474</v>
@@ -32724,16 +32724,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O23" t="n">
-        <v>99.27919642971769</v>
+        <v>99.2791964297177</v>
       </c>
       <c r="P23" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737671</v>
       </c>
       <c r="Q23" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134787</v>
       </c>
       <c r="R23" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S23" t="n">
         <v>13.4271557515988</v>
@@ -32742,7 +32742,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809228</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,46 +32782,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H24" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885101</v>
       </c>
       <c r="I24" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J24" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K24" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409525</v>
       </c>
       <c r="L24" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253947</v>
       </c>
       <c r="M24" t="n">
-        <v>79.88163340864767</v>
+        <v>79.8816334086477</v>
       </c>
       <c r="N24" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975594</v>
       </c>
       <c r="O24" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100591</v>
       </c>
       <c r="P24" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601704</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326611</v>
       </c>
       <c r="R24" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S24" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422067</v>
       </c>
       <c r="T24" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823639</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,40 +32861,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H25" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I25" t="n">
-        <v>7.948516869177519</v>
+        <v>7.94851686917752</v>
       </c>
       <c r="J25" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525803</v>
       </c>
       <c r="K25" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L25" t="n">
-        <v>39.29566048323129</v>
+        <v>39.2956604832313</v>
       </c>
       <c r="M25" t="n">
-        <v>41.43176432141109</v>
+        <v>41.4317643214111</v>
       </c>
       <c r="N25" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039457</v>
       </c>
       <c r="O25" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P25" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.13234246735009</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R25" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S25" t="n">
-        <v>4.606199165118891</v>
+        <v>4.606199165118892</v>
       </c>
       <c r="T25" t="n">
         <v>1.129323738970203</v>
@@ -34710,7 +34710,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34783,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34944,7 +34944,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N6" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35257,13 +35257,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35491,16 +35491,16 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K12" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>300.7391464461244</v>
+        <v>87.03308673054588</v>
       </c>
       <c r="M12" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N12" t="n">
-        <v>14.50290175900885</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O12" t="n">
         <v>326.276269873291</v>
@@ -35734,19 +35734,19 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M15" t="n">
-        <v>403.4526632366292</v>
+        <v>12.21399299873585</v>
       </c>
       <c r="N15" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P15" t="n">
         <v>244.6906557616239</v>
       </c>
       <c r="Q15" t="n">
-        <v>45.37675286849161</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K17" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L17" t="n">
         <v>274.8802469209098</v>
@@ -35904,7 +35904,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K18" t="n">
-        <v>177.5326105223149</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L18" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M18" t="n">
-        <v>403.4526632366293</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N18" t="n">
-        <v>153.8813432790642</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O18" t="n">
-        <v>326.276269873291</v>
+        <v>290.0674086301152</v>
       </c>
       <c r="P18" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L19" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M19" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N19" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O19" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P19" t="n">
-        <v>29.24562952714791</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K20" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L20" t="n">
         <v>274.8802469209098</v>
@@ -36141,7 +36141,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L21" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M21" t="n">
-        <v>403.4526632366293</v>
+        <v>12.2139929987362</v>
       </c>
       <c r="N21" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="O21" t="n">
-        <v>141.6094984446738</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P21" t="n">
         <v>244.6906557616239</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L22" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M22" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N22" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O22" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P22" t="n">
-        <v>29.24562952714791</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K23" t="n">
         <v>179.0082576726433</v>
@@ -36378,7 +36378,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q23" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680307</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L24" t="n">
         <v>300.7391464461244</v>
@@ -36448,16 +36448,16 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N24" t="n">
-        <v>405.7415719969023</v>
+        <v>14.50290175900908</v>
       </c>
       <c r="O24" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P24" t="n">
-        <v>141.323749279139</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243102</v>
       </c>
       <c r="L25" t="n">
         <v>66.88568574354744</v>
@@ -36530,10 +36530,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O25" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576038</v>
       </c>
       <c r="P25" t="n">
-        <v>29.24562952714791</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36676,16 +36676,16 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L27" t="n">
-        <v>197.3722399636396</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M27" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N27" t="n">
-        <v>405.7415719969023</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O27" t="n">
         <v>326.276269873291</v>
@@ -36694,7 +36694,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36919,10 +36919,10 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M30" t="n">
-        <v>122.5531462318296</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N30" t="n">
-        <v>405.7415719969023</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O30" t="n">
         <v>326.276269873291</v>
@@ -36931,7 +36931,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37153,13 +37153,13 @@
         <v>177.5326105223149</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M33" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N33" t="n">
-        <v>405.7415719969024</v>
+        <v>14.50290175900908</v>
       </c>
       <c r="O33" t="n">
         <v>326.276269873291</v>
@@ -37168,7 +37168,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q33" t="n">
-        <v>19.8396294413249</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K36" t="n">
         <v>177.5326105223149</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M36" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N36" t="n">
-        <v>405.7415719969023</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O36" t="n">
-        <v>264.8160343684834</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P36" t="n">
         <v>244.6906557616239</v>
@@ -37630,13 +37630,13 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M39" t="n">
-        <v>403.4526632366293</v>
+        <v>338.4902628720268</v>
       </c>
       <c r="N39" t="n">
-        <v>14.50290175900908</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O39" t="n">
-        <v>326.276269873291</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>244.6906557616239</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>177.5326105223149</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M42" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N42" t="n">
-        <v>315.2420482051331</v>
+        <v>153.881343279064</v>
       </c>
       <c r="O42" t="n">
         <v>326.276269873291</v>
@@ -37879,7 +37879,7 @@
         <v>244.690655761624</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>38.06115762167934</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K44" t="n">
         <v>179.0082576726433</v>
@@ -38028,7 +38028,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N44" t="n">
-        <v>313.0722467132387</v>
+        <v>313.0722467132383</v>
       </c>
       <c r="O44" t="n">
         <v>249.9811662707763</v>
@@ -38107,16 +38107,16 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N45" t="n">
-        <v>14.50290175900862</v>
+        <v>369.5327107537265</v>
       </c>
       <c r="O45" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P45" t="n">
-        <v>244.690655761624</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
